--- a/TestCasesCRUD.xlsx
+++ b/TestCasesCRUD.xlsx
@@ -16,25 +16,2165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>Test Name</t>
   </si>
   <si>
-    <t>Pre Condition</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Expected</t>
+    <t>Pre-Condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Launch the Computer Database page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. user needs to have access to: http://computer-database.herokuapp.com/computers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. On Computer Database Page
+2. User cliked on "Add a new computer" button
+</t>
+  </si>
+  <si>
+    <t>TestNum</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am a Computer Data Base User
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I view the "Add a computer" page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the following Field should be present with a "Required"  text to the right:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Computer Name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am a Computer Data Base User
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I view the "Add a computer" page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the following defaults should be present: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Computer Name - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Should be blank by default </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Introduced date - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Should be blank by default and with a date help to the right</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Date ('yyyy-MM-dd')
+Discontinued date -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Should be blank by default and with a date help to the right   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Date ('yyyy-MM-dd')
+Company - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>should display the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "-- Choose a company --" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>option by default</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Add a new computer -
+Mandatory fields</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am a Computer Data Base User
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I view the "Add a computer" page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I shoul ensure the Save button functions correctlly as per below:
+a. The save button is enabled by default
+b. When all mandatory fields are populated, on selecting save, it comes back to Computer Data base page with a success message at the top -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Done! Computer "name" has been created
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c. The new computer added, should display on computer datebase as a new row</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am a Computer dataBase User
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I view the "Add a computer" page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I shoul ensure the Cancel button functions correctlly as per below:
+a. The cancel button is enabled by default
+b. When none, all or any fields are populated, on selecting cancel, it comes back to Computer Data base page and should not include any row on Computer database</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Add a new computer  -
+Data Types</t>
+  </si>
+  <si>
+    <t>Add a new computer  -
+funciotnality when save with mandatory field not populated</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am a Computer dataBase User
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">When </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I attempt to save without fill the "Computer Name" field
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it remains on Add Computer Page and a red line sould appears on the field "Computer Name" field 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am a Computer dataBase User
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I view the "Add a computer" page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I should ensure the following data type for each field:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Computer Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Alphanumeric and special char
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Introduced date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -  Date field, only accept : 'yyy-MM-dd'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Discontinued date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -   Date field, only accept : 'yyy-MM-dd'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Dropbox
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Add a new computer  -
+funciotnality when save invalid Date format</t>
+  </si>
+  <si>
+    <t>Computer Database page</t>
+  </si>
+  <si>
+    <t>1. On Computer Database Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a new computer -
+Defaults on the page's fields </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a new computer  -
+Functionality arround Save Button </t>
+  </si>
+  <si>
+    <t>Add a new computer  -
+Functionality arround Cancel Button</t>
+  </si>
+  <si>
+    <t>Computer Database page: Defaults on the page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am a Computer Data Base User
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I view the Computer Database Page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I ensure the following information/fields/button are being dipalyed:
+a. Header title at the top "Play sample application — Computer database"
+b. Computer counter below the header: XX computers found
+c. Input filter by computer name 
+d. Filter by name Button
+e. Add a new computer Button at the right
+f. Previous button page - "Displaying 1 to 10 of 776" and next Button
+e. Computer table listind 11 result rows  and four columns:
+Computer Name 
+Introduced date
+Discontinued date
+Company
+       </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am a Computer Data Base User
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I view the Computer Database Page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I ensure the Page's default as follow:
+a. The filter fields should be present blank by default
+b.Filter by name and add a new computer should be enabled by default
+c.The previous button on paginator, should be desabled by default
+d. The next button should be enabled by default
+e.it should be possible to sort by the four columns on Computers table
+f.The computer table should brings  the computers name alphanumeric sorted
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Computer Database page: Ordenator behavior</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am a Computer Data Base Page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I click on next button paginator
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the previous button becomes anabled 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the computer counter on paginator should be "Displaying 11 to 20 of xxx"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I click on previous button and it becomes desabled </t>
+    </r>
+  </si>
+  <si>
+    <t>Add a new computer  -
+Happy Path</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am a Computer dataBase User
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">When </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I fill all mandatory fields and click on save button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the page redirects to the computer database page with a success add message
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Computer Database page:  
+Filtering a computer by name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am a Computer Data Base Page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I filter a created computer by name and click on filter by name button 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the result should only brings the computer metched</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Computer Database page:  
+Computer table no results matched</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am a Computer Data Base Page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I filter computer that does not registed 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the result should display the message into a grey line : Nothing to display
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Edit computer  -
+Happy Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. On Computer Database Page
+2. User cliked on a link computer result and is on Edit computer Page
+</t>
+  </si>
+  <si>
+    <t>Edit computer -
+Mandatory fields</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am on Edit computer page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">When I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">modify all the four  fields and click on "Save this computer" button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it should gives a Update success message on computers page:
+"Done! Computer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>computerName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has been updated"
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am on the "Edit a computer" page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I leave the Computer name blank and click on "Save this computer" button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a red line should be present on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Computer Name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>field</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit computer -
+Defaults on the page </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am a Computer Data Base User
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I view the "Edit computer" page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the following defaults should be present: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Computer Name - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Should diplay  the same name edited</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Introduced date - S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hould display like it was displayed n the computer's tabe</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Discontinued date -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Should display like it was displayed n the computer's tabe</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Company - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Should display like it was displayed n the computer's tabe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Delete this computer button - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">should be enabled by default
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Save this computer button - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">should be enabled by default
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cancel button - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>should be enabled by default</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit computer  -
+Functionality arround Save thi s computer Button </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am a Computer Data Base User
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I view the "Edit computer" page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I shoul ensure the Save button functions correctlly as per below:
+a. The save button is enabled by default
+b. When all mandatory fields are populated, on selecting save, it comes back to Computer Data base page with a success message at the top -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Done! Computer "name" has been updated
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c. The new computer update, should not display on computer datebase as a new row</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Edit computer  -
+Functionality arround Cancel Button</t>
+  </si>
+  <si>
+    <t>Edit computer  -
+funciotnality when save invalid Date format</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am a Computer dataBase User
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">When </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I fill na invalid date type on both Date fields
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it remains on Edit Computer Page and a red line sould appears on the Date fields  
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am a Computer dataBase User
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">When </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I fill na invalid date type on both Date fields
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it remains on Add a Computer Page and a red line sould appears on the Date fields  
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Edit computer  -
+Functionality arround Delete Button</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am a Computer dataBase User
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I view the Edit computer" page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I should ensure the Cancel button functions correctlly as per below:
+a. The cancel button is enabled by default
+b. When none, all or any fields are populated, on selecting cancel, it comes back to Computer Data base page and should not include any row on Computer database</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am a Computer dataBase User
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I view the Edit computer" page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I should ensure the Delete button functions correctlly as per below:
+a. The delete button is enabled by default
+b. When I click on delete button it is redirected to computer page with the message: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Done! Computer has been deleted
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Computer DataBase page</t>
+  </si>
+  <si>
+    <t>Add a new computer page</t>
+  </si>
+  <si>
+    <t>Edit computer page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am a Computer Data Base User
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I attempt  to lauch the page 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am able to view it loaded successfully</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,19 +2182,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -63,10 +2239,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -369,78 +2573,1070 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="C40" sqref="C40:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>5</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>6</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>7</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>8</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>9</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>10</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>11</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>12</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>13</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>14</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" s="11"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>15</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
+        <v>16</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
+        <v>17</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
+        <v>18</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="5"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="7"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="5">
+        <v>19</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="5"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="7"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="7"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="7"/>
+    </row>
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="7"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="7"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="5">
+        <v>20</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="7"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="7"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="5"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="7"/>
+    </row>
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="5"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="7"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="5"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="7"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="5">
+        <v>21</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="7"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="5"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="7"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="5"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="7"/>
+    </row>
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="5"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="7"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="5"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D7"/>
+  <mergeCells count="84">
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="B125:B130"/>
+    <mergeCell ref="C125:C130"/>
+    <mergeCell ref="D125:D130"/>
+    <mergeCell ref="A119:A124"/>
+    <mergeCell ref="B119:B124"/>
+    <mergeCell ref="C119:C124"/>
+    <mergeCell ref="D119:D124"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="C107:C112"/>
+    <mergeCell ref="D107:D112"/>
+    <mergeCell ref="A113:A118"/>
+    <mergeCell ref="B113:B118"/>
+    <mergeCell ref="C113:C118"/>
+    <mergeCell ref="D113:D118"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="D89:D94"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="D101:D106"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="C95:C100"/>
+    <mergeCell ref="D95:D100"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="B82:B87"/>
+    <mergeCell ref="C82:C87"/>
+    <mergeCell ref="D82:D87"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="C76:C81"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="D70:D75"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D21:D26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
